--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,27 +49,30 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>risk</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,21 +94,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -112,34 +118,34 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
@@ -148,46 +154,49 @@
     <t>good</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>join</t>
+    <t>please</t>
   </si>
   <si>
     <t>alert</t>
@@ -196,7 +205,7 @@
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -205,37 +214,37 @@
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -596,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,16 +695,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -715,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,16 +795,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6952054794520548</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5897435897435898</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>0.8888888888888888</v>
@@ -965,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0.8660714285714286</v>
@@ -1015,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.392156862745098</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <v>0.8414634146341463</v>
@@ -1065,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.348993288590604</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3410852713178295</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C12">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D12">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3389830508474576</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.328042328042328</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8203125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2597402597402597</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,38 +1324,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1587301587301587</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L16">
         <v>40</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>40</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>212</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.7833333333333333</v>
-      </c>
-      <c r="L16">
-        <v>94</v>
-      </c>
-      <c r="M16">
-        <v>94</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08847184986595175</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
@@ -1411,17 +1420,41 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>207</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7746478873239436</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,21 +1466,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1072386058981233</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>333</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7647058823529411</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1485,12 +1542,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>0.7452830188679245</v>
@@ -1516,16 +1573,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.73125</v>
+        <v>0.71875</v>
       </c>
       <c r="L22">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M22">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1537,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1563,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7021276595744681</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1589,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6984126984126984</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1615,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6944444444444444</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1641,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1667,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.625</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1693,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6161879895561357</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1719,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1745,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5882352941176471</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1771,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5852941176470589</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L32">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1797,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1823,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.535593220338983</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1849,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5280898876404494</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1875,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.4883720930232558</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1901,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.4761904761904762</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1927,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.475</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1953,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.4728033472803347</v>
+        <v>0.475</v>
       </c>
       <c r="L39">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1979,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4520547945205479</v>
+        <v>0.46875</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2005,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.4461538461538462</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2031,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.390625</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2057,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.3846153846153846</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2083,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.3428571428571429</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2109,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.1148325358851675</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2135,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>370</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.09134615384615384</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2161,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.08837209302325581</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2187,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>196</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.05704697986577181</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L48">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M48">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2213,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.04661487236403995</v>
+        <v>0.04106548279689234</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2239,110 +2296,136 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.03240740740740741</v>
+        <v>0.03575547866205306</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>627</v>
+        <v>836</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.03114186851211072</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>840</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.03037383177570093</v>
+        <v>0.02615600186828585</v>
       </c>
       <c r="L52">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2075</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K53">
+        <v>0.01962809917355372</v>
+      </c>
+      <c r="L53">
+        <v>19</v>
+      </c>
+      <c r="M53">
+        <v>19</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54">
         <v>0.01483392454047082</v>
       </c>
-      <c r="L53">
+      <c r="L54">
         <v>46</v>
       </c>
-      <c r="M53">
+      <c r="M54">
         <v>52</v>
       </c>
-      <c r="N53">
+      <c r="N54">
         <v>0.88</v>
       </c>
-      <c r="O53">
+      <c r="O54">
         <v>0.12</v>
       </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
         <v>3055</v>
       </c>
     </row>
